--- a/inf.xlsx
+++ b/inf.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polina\HolyCo Global Dropbox\Ольга Цыбакова\Start DS\Проект\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEFBED19-F472-49C4-B77E-329A1F9FD25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,7 +65,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -164,7 +158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,23 +335,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -365,7 +359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -373,7 +367,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -381,7 +375,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -389,7 +383,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -397,7 +391,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -405,7 +399,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -413,7 +407,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -421,7 +415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -429,7 +423,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -437,7 +431,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -445,7 +439,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -453,7 +447,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -461,7 +455,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -469,7 +463,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -477,7 +471,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -485,7 +479,7 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -493,7 +487,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -501,7 +495,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -509,7 +503,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -517,7 +511,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -525,7 +519,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -533,7 +527,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
@@ -541,7 +535,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>2022</v>
       </c>
@@ -549,7 +543,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>2023</v>
       </c>
